--- a/stock_predictor_ai/data/company_sentiment_ready/PTC_sentiment.xlsx
+++ b/stock_predictor_ai/data/company_sentiment_ready/PTC_sentiment.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8954"/>
+  <dimension ref="A1:B9008"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72073,6 +72073,438 @@
         <v>0</v>
       </c>
     </row>
+    <row r="8955">
+      <c r="A8955" s="2" t="n">
+        <v>45838</v>
+      </c>
+      <c r="B8955" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8956">
+      <c r="A8956" s="2" t="n">
+        <v>45839</v>
+      </c>
+      <c r="B8956" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8957">
+      <c r="A8957" s="2" t="n">
+        <v>45840</v>
+      </c>
+      <c r="B8957" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8958">
+      <c r="A8958" s="2" t="n">
+        <v>45841</v>
+      </c>
+      <c r="B8958" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8959">
+      <c r="A8959" s="2" t="n">
+        <v>45845</v>
+      </c>
+      <c r="B8959" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8960">
+      <c r="A8960" s="2" t="n">
+        <v>45846</v>
+      </c>
+      <c r="B8960" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8961">
+      <c r="A8961" s="2" t="n">
+        <v>45847</v>
+      </c>
+      <c r="B8961" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8962">
+      <c r="A8962" s="2" t="n">
+        <v>45848</v>
+      </c>
+      <c r="B8962" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8963">
+      <c r="A8963" s="2" t="n">
+        <v>45849</v>
+      </c>
+      <c r="B8963" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8964">
+      <c r="A8964" s="2" t="n">
+        <v>45852</v>
+      </c>
+      <c r="B8964" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8965">
+      <c r="A8965" s="2" t="n">
+        <v>45853</v>
+      </c>
+      <c r="B8965" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8966">
+      <c r="A8966" s="2" t="n">
+        <v>45854</v>
+      </c>
+      <c r="B8966" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8967">
+      <c r="A8967" s="2" t="n">
+        <v>45855</v>
+      </c>
+      <c r="B8967" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8968">
+      <c r="A8968" s="2" t="n">
+        <v>45856</v>
+      </c>
+      <c r="B8968" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8969">
+      <c r="A8969" s="2" t="n">
+        <v>45859</v>
+      </c>
+      <c r="B8969" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8970">
+      <c r="A8970" s="2" t="n">
+        <v>45860</v>
+      </c>
+      <c r="B8970" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8971">
+      <c r="A8971" s="2" t="n">
+        <v>45861</v>
+      </c>
+      <c r="B8971" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8972">
+      <c r="A8972" s="2" t="n">
+        <v>45862</v>
+      </c>
+      <c r="B8972" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8973">
+      <c r="A8973" s="2" t="n">
+        <v>45863</v>
+      </c>
+      <c r="B8973" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8974">
+      <c r="A8974" s="2" t="n">
+        <v>45866</v>
+      </c>
+      <c r="B8974" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8975">
+      <c r="A8975" s="2" t="n">
+        <v>45867</v>
+      </c>
+      <c r="B8975" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8976">
+      <c r="A8976" s="2" t="n">
+        <v>45868</v>
+      </c>
+      <c r="B8976" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8977">
+      <c r="A8977" s="2" t="n">
+        <v>45869</v>
+      </c>
+      <c r="B8977" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8978">
+      <c r="A8978" s="2" t="n">
+        <v>45870</v>
+      </c>
+      <c r="B8978" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8979">
+      <c r="A8979" s="2" t="n">
+        <v>45873</v>
+      </c>
+      <c r="B8979" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8980">
+      <c r="A8980" s="2" t="n">
+        <v>45874</v>
+      </c>
+      <c r="B8980" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8981">
+      <c r="A8981" s="2" t="n">
+        <v>45875</v>
+      </c>
+      <c r="B8981" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8982">
+      <c r="A8982" s="2" t="n">
+        <v>45876</v>
+      </c>
+      <c r="B8982" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8983">
+      <c r="A8983" s="2" t="n">
+        <v>45877</v>
+      </c>
+      <c r="B8983" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8984">
+      <c r="A8984" s="2" t="n">
+        <v>45880</v>
+      </c>
+      <c r="B8984" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8985">
+      <c r="A8985" s="2" t="n">
+        <v>45881</v>
+      </c>
+      <c r="B8985" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8986">
+      <c r="A8986" s="2" t="n">
+        <v>45882</v>
+      </c>
+      <c r="B8986" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8987">
+      <c r="A8987" s="2" t="n">
+        <v>45883</v>
+      </c>
+      <c r="B8987" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8988">
+      <c r="A8988" s="2" t="n">
+        <v>45884</v>
+      </c>
+      <c r="B8988" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8989">
+      <c r="A8989" s="2" t="n">
+        <v>45887</v>
+      </c>
+      <c r="B8989" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8990">
+      <c r="A8990" s="2" t="n">
+        <v>45888</v>
+      </c>
+      <c r="B8990" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8991">
+      <c r="A8991" s="2" t="n">
+        <v>45889</v>
+      </c>
+      <c r="B8991" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8992">
+      <c r="A8992" s="2" t="n">
+        <v>45890</v>
+      </c>
+      <c r="B8992" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8993">
+      <c r="A8993" s="2" t="n">
+        <v>45891</v>
+      </c>
+      <c r="B8993" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8994">
+      <c r="A8994" s="2" t="n">
+        <v>45894</v>
+      </c>
+      <c r="B8994" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8995">
+      <c r="A8995" s="2" t="n">
+        <v>45895</v>
+      </c>
+      <c r="B8995" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8996">
+      <c r="A8996" s="2" t="n">
+        <v>45896</v>
+      </c>
+      <c r="B8996" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8997">
+      <c r="A8997" s="2" t="n">
+        <v>45897</v>
+      </c>
+      <c r="B8997" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8998">
+      <c r="A8998" s="2" t="n">
+        <v>45898</v>
+      </c>
+      <c r="B8998" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8999">
+      <c r="A8999" s="2" t="n">
+        <v>45902</v>
+      </c>
+      <c r="B8999" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9000">
+      <c r="A9000" s="2" t="n">
+        <v>45903</v>
+      </c>
+      <c r="B9000" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9001">
+      <c r="A9001" s="2" t="n">
+        <v>45904</v>
+      </c>
+      <c r="B9001" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9002">
+      <c r="A9002" s="2" t="n">
+        <v>45905</v>
+      </c>
+      <c r="B9002" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9003">
+      <c r="A9003" s="2" t="n">
+        <v>45908</v>
+      </c>
+      <c r="B9003" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9004">
+      <c r="A9004" s="2" t="n">
+        <v>45909</v>
+      </c>
+      <c r="B9004" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9005">
+      <c r="A9005" s="2" t="n">
+        <v>45910</v>
+      </c>
+      <c r="B9005" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9006">
+      <c r="A9006" s="2" t="n">
+        <v>45911</v>
+      </c>
+      <c r="B9006" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9007">
+      <c r="A9007" s="2" t="n">
+        <v>45912</v>
+      </c>
+      <c r="B9007" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9008">
+      <c r="A9008" s="2" t="n">
+        <v>45915</v>
+      </c>
+      <c r="B9008" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
